--- a/Process Analytics Course Materials 2023/advanced_datasets/3 Process and Product Design/Spray Dried Material/Spray Drying.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/3 Process and Product Design/Spray Dried Material/Spray Drying.xlsx
@@ -2117,13 +2117,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82841416-C5E5-437E-BAD9-E6D9EF756D72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BC1B92-32E2-4FDD-93E4-37C001DD2925}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862327AA-3C9D-45E9-96B8-CF5B5D2787CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5EC2BBC-FCF8-4AEB-9021-47CDB2B7C9F7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1614813-2603-4C79-BEFD-3F247F4B2DE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F713B62B-ECA0-4C24-A06F-7B5C04635599}"/>
 </file>